--- a/biology/Botanique/Armoise_de_la_mer_Noire/Armoise_de_la_mer_Noire.xlsx
+++ b/biology/Botanique/Armoise_de_la_mer_Noire/Armoise_de_la_mer_Noire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Artemisia pontica
 L'Armoise romaine ou  petite absinthe (dont le nom scientifique est Artemisia pontica  L.) est une espèce de plante à fleurs de la famille des Asteraceae.
-Elle entre dans la composition de plusieurs boissons alcoolisées dont l'absinthe en complément de la grande absinthe et elle est la source du principal arôme du vermouth (apéritif à base de vin blanc)[1]. 
+Elle entre dans la composition de plusieurs boissons alcoolisées dont l'absinthe en complément de la grande absinthe et elle est la source du principal arôme du vermouth (apéritif à base de vin blanc). 
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Origine, aire de répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">cette plante serait originaire du sud-est de l'Europe (son nom d'espèce (pontica) fait référence à la région du Pontus sur les rives de la mer Noire)[2]. 
-Elle s'est ensuite naturalisée sur une grande partie de l'Eurasie, de la France au Xinjiang et elle a été introduite en Amérique du nord où elle se naturalise dans les États du nord-est du pays[3],[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cette plante serait originaire du sud-est de l'Europe (son nom d'espèce (pontica) fait référence à la région du Pontus sur les rives de la mer Noire). 
+Elle s'est ensuite naturalisée sur une grande partie de l'Eurasie, de la France au Xinjiang et elle a été introduite en Amérique du nord où elle se naturalise dans les États du nord-est du pays.
 </t>
         </is>
       </c>
@@ -545,11 +559,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme l'indique son nom de « petite absinthe », Artemisia pontica est appelée est plus petite en taille et en feuilles que la « grande absinthe » (Artemisia absinthium). 
 C'est une plante vivace rhizomateuse à tiges dressées (jusqu'à un mètre de haut), au feuillage vert-gris, finement divisé et aromatique. 
-Les fleurs sont petites, jaunâtres et apparaissent en panicules lâches à l'extrémité des tiges[6].
+Les fleurs sont petites, jaunâtres et apparaissent en panicules lâches à l'extrémité des tiges.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Propriété pharmacochimiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son huile essentielle contient du cinéol, du camphre, de la thuyone et du bornéol, entre autres composants[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son huile essentielle contient du cinéol, du camphre, de la thuyone et du bornéol, entre autres composants.
 On la dit moins amère que la grande absinthe.
 </t>
         </is>
@@ -610,9 +628,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est cultivée à grande échelle dans un but commercial dans certains pays (Espagne, Lituanie)[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est cultivée à grande échelle dans un but commercial dans certains pays (Espagne, Lituanie).
 </t>
         </is>
       </c>
